--- a/DMI_prediction_supplementary_studies.xlsx
+++ b/DMI_prediction_supplementary_studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHawkins\Documents\Github\DMI.prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2E016-0C6F-46B5-8B28-E46ABE27C725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE1E590-1BD7-43E7-A4A5-EFE020EA7A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{92CEF585-185E-4D66-8079-91C6C32D5A7E}"/>
   </bookViews>
@@ -35,6 +35,25 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={714C7902-1179-48B6-8A5F-B0D715215314}</author>
+  </authors>
+  <commentList>
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{714C7902-1179-48B6-8A5F-B0D715215314}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Search string:
+("dry matter intake") AND ("cattle") AND ("Africa") AND ("experiment")</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
@@ -108,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +150,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +202,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Hawkins, James (ILRI)" id="{F33E9B36-755B-4CE0-8118-366AC27ECB4E}" userId="S::J.Hawkins@cgiar.org::fa0c5970-8857-44b2-99c8-2a84fc8ed53a" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,12 +522,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="M9" dT="2025-07-24T13:01:56.56" personId="{F33E9B36-755B-4CE0-8118-366AC27ECB4E}" id="{714C7902-1179-48B6-8A5F-B0D715215314}">
+    <text>Search string:
+("dry matter intake") AND ("cattle") AND ("Africa") AND ("experiment")</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9643A5DB-58AE-47CC-BF0A-7C0C089D48CC}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9643A5DB-58AE-47CC-BF0A-7C0C089D48CC}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +547,7 @@
     <col min="5" max="5" width="99.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -528,7 +564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -542,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -556,7 +592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -570,7 +606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -584,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -601,7 +637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -615,11 +651,13 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9794C9B1-F0F3-45EE-9E55-56828B3B3008}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/DMI_prediction_supplementary_studies.xlsx
+++ b/DMI_prediction_supplementary_studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHawkins\Documents\Github\DMI.prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE1E590-1BD7-43E7-A4A5-EFE020EA7A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7952F6-A518-4B69-B976-D384622B9EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{92CEF585-185E-4D66-8079-91C6C32D5A7E}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +150,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -535,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9643A5DB-58AE-47CC-BF0A-7C0C089D48CC}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +627,7 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -655,9 +649,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9794C9B1-F0F3-45EE-9E55-56828B3B3008}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{F748432B-6AF3-401B-8D6C-D8ADF11BDC4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>